--- a/BackTest/2020-01-16 BackTest AOA.xlsx
+++ b/BackTest/2020-01-16 BackTest AOA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>1527385.197240562</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-2053560.682759438</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-2309489.122859438</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-2628105.318759438</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-2921824.040459438</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-11276764.29825944</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-11345351.19875944</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-9765723.172159437</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-9765723.172159437</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-8070591.687959437</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-9945174.968759436</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-9700957.596859436</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-8204654.674359436</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-8204654.674359436</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-8163834.253759436</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-8163834.253759436</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-7799719.084059436</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-10762312.96405943</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>670917.0470405642</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-7818.072959435754</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-557818.0729594358</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>4615234.797640565</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>4602856.920240565</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>5615234.797640565</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>3432499.917640565</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>7064896.327640565</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>5153221.447640565</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>6051752.447640565</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>8538458.207640566</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>6419072.947640566</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>7043819.447640566</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>7044834.892540566</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>7298237.892540566</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>9377285.272540566</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>9377285.272540566</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>6175477.392540566</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>5677510.861240566</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>3134784.981240566</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>5675654.861240566</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>1251104.981240566</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>6738689.571240566</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>4720567.691240566</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>4720107.744640565</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>6325475.744640565</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>5054441.721340565</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>6521583.601340565</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-9689767.562459435</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5962,17 +5962,11 @@
         <v>-14278326.12545944</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
-      </c>
-      <c r="I169" t="n">
-        <v>1.672</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6005,11 +5999,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6042,11 +6032,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6079,11 +6065,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6116,11 +6098,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6153,11 +6131,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6190,11 +6164,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6227,11 +6197,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6264,11 +6230,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6301,11 +6263,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6338,11 +6296,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6375,11 +6329,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6412,11 +6362,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6449,11 +6395,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6486,11 +6428,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6523,11 +6461,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6560,11 +6494,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6597,11 +6527,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6634,11 +6560,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6671,11 +6593,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6708,11 +6626,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6745,11 +6659,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6782,11 +6692,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6819,11 +6725,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6856,11 +6758,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6893,11 +6791,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6930,11 +6824,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6967,11 +6857,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7004,11 +6890,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7041,11 +6923,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7078,11 +6956,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7115,11 +6989,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7152,11 +7022,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7189,11 +7055,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7226,11 +7088,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7263,11 +7121,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7300,11 +7154,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7337,11 +7187,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7374,11 +7220,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7411,11 +7253,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7448,11 +7286,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7485,11 +7319,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7522,11 +7352,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7559,11 +7385,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7596,11 +7418,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7633,11 +7451,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7670,11 +7484,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7707,11 +7517,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7744,11 +7550,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7777,17 +7579,11 @@
         <v>-23029973.34475944</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
-      </c>
-      <c r="I218" t="n">
-        <v>1.68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7820,11 +7616,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7853,17 +7645,11 @@
         <v>-26124884.74285944</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
-      </c>
-      <c r="I220" t="n">
-        <v>1.698</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7896,11 +7682,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7933,11 +7715,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7970,11 +7748,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8007,11 +7781,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8044,11 +7814,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8081,11 +7847,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8118,11 +7880,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8155,11 +7913,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8192,11 +7946,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8229,11 +7979,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8266,11 +8012,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8303,11 +8045,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8340,11 +8078,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8377,11 +8111,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8414,11 +8144,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8451,11 +8177,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8488,11 +8210,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8525,11 +8243,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8562,11 +8276,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8599,11 +8309,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8636,11 +8342,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8673,11 +8375,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8710,11 +8408,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8747,11 +8441,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8784,11 +8474,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8821,11 +8507,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8858,11 +8540,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8895,11 +8573,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8932,11 +8606,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8969,11 +8639,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9006,11 +8672,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9043,11 +8705,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9080,11 +8738,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9117,11 +8771,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9154,11 +8804,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9191,11 +8837,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9228,11 +8870,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9265,11 +8903,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9302,11 +8936,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9339,11 +8969,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9376,11 +9002,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9413,11 +9035,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9450,11 +9068,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9487,11 +9101,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9524,11 +9134,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9561,11 +9167,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9598,11 +9200,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9635,11 +9233,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9672,11 +9266,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9709,11 +9299,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9746,11 +9332,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9783,11 +9365,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9820,11 +9398,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9857,11 +9431,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9894,11 +9464,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9927,17 +9493,11 @@
         <v>-24179610.98165944</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
-      </c>
-      <c r="I276" t="n">
-        <v>1.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9966,17 +9526,11 @@
         <v>-23634257.31235944</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
-      </c>
-      <c r="I277" t="n">
-        <v>1.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10005,17 +9559,11 @@
         <v>-23638469.79005944</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
-      </c>
-      <c r="I278" t="n">
-        <v>1.775</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10048,11 +9596,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10085,11 +9629,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10122,11 +9662,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10159,11 +9695,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10196,11 +9728,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10233,11 +9761,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10270,11 +9794,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10307,11 +9827,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10344,11 +9860,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10381,11 +9893,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10418,11 +9926,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10455,11 +9959,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10492,11 +9992,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10529,11 +10025,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10566,11 +10058,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10603,11 +10091,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10640,11 +10124,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10673,16 +10153,14 @@
         <v>-26188946.78102564</v>
       </c>
       <c r="H296" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
       <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
@@ -10741,7 +10219,7 @@
         <v>-26178683.32332564</v>
       </c>
       <c r="H298" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10906,7 +10384,7 @@
         <v>-26840809.57452564</v>
       </c>
       <c r="H303" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -13975,10 +13453,14 @@
         <v>-32687355.91006943</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I396" t="n">
+        <v>1.745</v>
+      </c>
+      <c r="J396" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
@@ -14008,12 +13490,14 @@
         <v>-32879743.75466943</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I397" t="n">
         <v>1.75</v>
       </c>
-      <c r="J397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K397" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -14047,12 +13531,14 @@
         <v>-32875450.61181229</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I398" t="n">
         <v>1.74</v>
       </c>
-      <c r="J398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14086,12 +13572,14 @@
         <v>-32875450.61181229</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I399" t="n">
         <v>1.75</v>
       </c>
-      <c r="J399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14125,12 +13613,14 @@
         <v>-32875450.61181229</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I400" t="n">
         <v>1.75</v>
       </c>
-      <c r="J400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14164,12 +13654,14 @@
         <v>-32875450.61181229</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I401" t="n">
         <v>1.75</v>
       </c>
-      <c r="J401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14203,12 +13695,14 @@
         <v>-32875450.61181229</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I402" t="n">
         <v>1.75</v>
       </c>
-      <c r="J402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14242,12 +13736,14 @@
         <v>-32875450.61181229</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I403" t="n">
         <v>1.75</v>
       </c>
-      <c r="J403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14281,12 +13777,14 @@
         <v>-32884910.37781228</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I404" t="n">
         <v>1.75</v>
       </c>
-      <c r="J404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14320,12 +13818,14 @@
         <v>-32884910.37781228</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I405" t="n">
         <v>1.745</v>
       </c>
-      <c r="J405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14359,12 +13859,14 @@
         <v>-32884910.37781228</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I406" t="n">
         <v>1.745</v>
       </c>
-      <c r="J406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14400,8 +13902,12 @@
       <c r="H407" t="n">
         <v>1</v>
       </c>
-      <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
+      <c r="I407" t="n">
+        <v>1.745</v>
+      </c>
+      <c r="J407" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14435,12 +13941,14 @@
         <v>-32884624.37781228</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I408" t="n">
         <v>1.745</v>
       </c>
-      <c r="J408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14474,12 +13982,14 @@
         <v>-32884624.37781228</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I409" t="n">
         <v>1.749</v>
       </c>
-      <c r="J409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14513,12 +14023,14 @@
         <v>-33282717.16611229</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I410" t="n">
         <v>1.749</v>
       </c>
-      <c r="J410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14552,12 +14064,14 @@
         <v>-32182436.16611229</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I411" t="n">
         <v>1.745</v>
       </c>
-      <c r="J411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14591,12 +14105,14 @@
         <v>-35579238.04611228</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I412" t="n">
         <v>1.77</v>
       </c>
-      <c r="J412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14630,10 +14146,14 @@
         <v>-32764902.28611229</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
-      </c>
-      <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I413" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="J413" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14670,7 +14190,9 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14704,10 +14226,14 @@
         <v>-33434640.71941229</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
-      </c>
-      <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I415" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="J415" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14741,12 +14267,14 @@
         <v>-34024640.71941228</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I416" t="n">
         <v>1.769</v>
       </c>
-      <c r="J416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14780,12 +14308,14 @@
         <v>-34456291.11791229</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I417" t="n">
         <v>1.746</v>
       </c>
-      <c r="J417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14819,12 +14349,14 @@
         <v>-34455029.74751229</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I418" t="n">
         <v>1.737</v>
       </c>
-      <c r="J418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14858,12 +14390,14 @@
         <v>-34548354.45691229</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I419" t="n">
         <v>1.766</v>
       </c>
-      <c r="J419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14897,10 +14431,14 @@
         <v>-32459963.57691229</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
-      </c>
-      <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I420" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="J420" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14934,12 +14472,14 @@
         <v>-35802790.57691228</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I421" t="n">
         <v>1.759</v>
       </c>
-      <c r="J421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14973,12 +14513,12 @@
         <v>-35802790.57691228</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
-      </c>
-      <c r="I422" t="n">
-        <v>1.738</v>
-      </c>
-      <c r="J422" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15012,12 +14552,14 @@
         <v>-35802505.57691228</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I423" t="n">
         <v>1.738</v>
       </c>
-      <c r="J423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15054,7 +14596,9 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15088,12 +14632,12 @@
         <v>-34339968.83891228</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
-      </c>
-      <c r="I425" t="n">
-        <v>1.738</v>
-      </c>
-      <c r="J425" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15130,7 +14674,9 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15167,7 +14713,9 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15204,7 +14752,9 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15238,12 +14788,12 @@
         <v>-35128958.83891228</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
-      </c>
-      <c r="I429" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="J429" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15280,7 +14830,9 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15314,12 +14866,12 @@
         <v>-35075996.90691228</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
-      </c>
-      <c r="I431" t="n">
-        <v>1.766</v>
-      </c>
-      <c r="J431" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15356,7 +14908,9 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15393,7 +14947,9 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15430,7 +14986,9 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15467,7 +15025,9 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15504,7 +15064,9 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15538,12 +15100,12 @@
         <v>-35270316.00681228</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
-      </c>
-      <c r="I437" t="n">
-        <v>1.752</v>
-      </c>
-      <c r="J437" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15577,12 +15139,12 @@
         <v>-35496856.00311228</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
-      </c>
-      <c r="I438" t="n">
-        <v>1.752</v>
-      </c>
-      <c r="J438" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15616,12 +15178,12 @@
         <v>-35496571.00311228</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
-      </c>
-      <c r="I439" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="J439" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15655,12 +15217,12 @@
         <v>-35327364.17781228</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
-      </c>
-      <c r="I440" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="J440" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15697,7 +15259,9 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15734,7 +15298,9 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15771,7 +15337,9 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15808,7 +15376,9 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15845,7 +15415,9 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15879,12 +15451,12 @@
         <v>-41879284.71241228</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
-      </c>
-      <c r="I446" t="n">
-        <v>1.736</v>
-      </c>
-      <c r="J446" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15918,12 +15490,12 @@
         <v>-41672224.28121228</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
-      </c>
-      <c r="I447" t="n">
-        <v>1.735</v>
-      </c>
-      <c r="J447" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15960,7 +15532,9 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15997,7 +15571,9 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16034,7 +15610,9 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16071,7 +15649,9 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16108,7 +15688,9 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16142,12 +15724,12 @@
         <v>-43620808.91021228</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
-      </c>
-      <c r="I453" t="n">
-        <v>1.758</v>
-      </c>
-      <c r="J453" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16181,12 +15763,12 @@
         <v>-43620808.91021228</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
-      </c>
-      <c r="I454" t="n">
-        <v>1.741</v>
-      </c>
-      <c r="J454" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16220,12 +15802,12 @@
         <v>-42999002.57461227</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
-      </c>
-      <c r="I455" t="n">
-        <v>1.741</v>
-      </c>
-      <c r="J455" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16262,7 +15844,9 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16299,7 +15883,9 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16336,7 +15922,9 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16373,7 +15961,9 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16407,12 +15997,12 @@
         <v>-43649234.59101227</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
-      </c>
-      <c r="I460" t="n">
-        <v>1.758</v>
-      </c>
-      <c r="J460" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16449,7 +16039,9 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16486,7 +16078,9 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16523,7 +16117,9 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16560,7 +16156,9 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16597,7 +16195,9 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16634,7 +16234,9 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16671,7 +16273,9 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16708,7 +16312,9 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16745,7 +16351,9 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16782,7 +16390,9 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16819,7 +16429,9 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16856,7 +16468,9 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16893,7 +16507,9 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16930,7 +16546,9 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16967,7 +16585,9 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17004,7 +16624,9 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17041,7 +16663,9 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17078,7 +16702,9 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17115,7 +16741,9 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17152,7 +16780,9 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17189,7 +16819,9 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17226,7 +16858,9 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17263,7 +16897,9 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17300,7 +16936,9 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17337,7 +16975,9 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17374,7 +17014,9 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17411,7 +17053,9 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17448,7 +17092,9 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17485,7 +17131,9 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17522,7 +17170,9 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17559,7 +17209,9 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17596,7 +17248,9 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17633,7 +17287,9 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17670,7 +17326,9 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17707,7 +17365,9 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17744,7 +17404,9 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17781,7 +17443,9 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17818,7 +17482,9 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17855,7 +17521,9 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17892,7 +17560,9 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17929,7 +17599,9 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17966,7 +17638,9 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18000,12 +17674,12 @@
         <v>-45810996.13034704</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
-      </c>
-      <c r="I503" t="n">
-        <v>1.775</v>
-      </c>
-      <c r="J503" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18039,12 +17713,12 @@
         <v>-45810996.13034704</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
-      </c>
-      <c r="I504" t="n">
-        <v>1.775</v>
-      </c>
-      <c r="J504" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18078,12 +17752,12 @@
         <v>-45710996.13034704</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
-      </c>
-      <c r="I505" t="n">
-        <v>1.775</v>
-      </c>
-      <c r="J505" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18120,7 +17794,9 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18157,7 +17833,9 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18194,7 +17872,9 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18231,7 +17911,9 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18268,7 +17950,9 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18302,12 +17986,12 @@
         <v>-45745663.30134704</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
-      </c>
-      <c r="I511" t="n">
-        <v>1.778</v>
-      </c>
-      <c r="J511" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18344,7 +18028,9 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>1.745</v>
+      </c>
       <c r="K512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18356,6 +18042,6 @@
       <c r="M512" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest AOA.xlsx
+++ b/BackTest/2020-01-16 BackTest AOA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>1527385.197240562</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-2053560.682759438</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-2309489.122859438</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-2628105.318759438</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-2921824.040459438</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-8070591.687959437</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-9945174.968759436</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>7043819.447640566</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>9377285.272540566</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>6175477.392540566</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>5677510.861240566</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>3134784.981240566</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>2700339.861240566</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>4089772.691240566</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>1422989.811240566</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>3591332.691240566</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>6521583.601340565</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>6527687.281740565</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>5060074.281740565</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>5059091.380940565</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>5803364.380940565</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>6570817.260940565</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-9689767.562459435</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -13453,14 +13453,10 @@
         <v>-32687355.91006943</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
-      </c>
-      <c r="I396" t="n">
-        <v>1.745</v>
-      </c>
-      <c r="J396" t="n">
-        <v>1.745</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I396" t="inlineStr"/>
+      <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
@@ -13490,429 +13486,347 @@
         <v>-32879743.75466943</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
-      </c>
-      <c r="I397" t="n">
+        <v>0</v>
+      </c>
+      <c r="I397" t="inlineStr"/>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
+      <c r="L397" t="n">
+        <v>1</v>
+      </c>
+      <c r="M397" t="inlineStr"/>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="n">
+        <v>396</v>
+      </c>
+      <c r="B398" t="n">
         <v>1.75</v>
       </c>
-      <c r="J397" t="n">
+      <c r="C398" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="D398" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="E398" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F398" t="n">
+        <v>4293.142857142857</v>
+      </c>
+      <c r="G398" t="n">
+        <v>-32875450.61181229</v>
+      </c>
+      <c r="H398" t="n">
+        <v>0</v>
+      </c>
+      <c r="I398" t="inlineStr"/>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
+      <c r="L398" t="n">
+        <v>1</v>
+      </c>
+      <c r="M398" t="inlineStr"/>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="n">
+        <v>397</v>
+      </c>
+      <c r="B399" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="C399" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="D399" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="E399" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F399" t="n">
+        <v>5968.835</v>
+      </c>
+      <c r="G399" t="n">
+        <v>-32875450.61181229</v>
+      </c>
+      <c r="H399" t="n">
+        <v>0</v>
+      </c>
+      <c r="I399" t="inlineStr"/>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
+      <c r="L399" t="n">
+        <v>1</v>
+      </c>
+      <c r="M399" t="inlineStr"/>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="n">
+        <v>398</v>
+      </c>
+      <c r="B400" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="C400" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="D400" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="E400" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F400" t="n">
+        <v>5969.4079</v>
+      </c>
+      <c r="G400" t="n">
+        <v>-32875450.61181229</v>
+      </c>
+      <c r="H400" t="n">
+        <v>0</v>
+      </c>
+      <c r="I400" t="inlineStr"/>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
+      <c r="L400" t="n">
+        <v>1</v>
+      </c>
+      <c r="M400" t="inlineStr"/>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="n">
+        <v>399</v>
+      </c>
+      <c r="B401" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="C401" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="D401" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="E401" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F401" t="n">
+        <v>13850.5627</v>
+      </c>
+      <c r="G401" t="n">
+        <v>-32875450.61181229</v>
+      </c>
+      <c r="H401" t="n">
+        <v>0</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
+      <c r="L401" t="n">
+        <v>1</v>
+      </c>
+      <c r="M401" t="inlineStr"/>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="B402" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="C402" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="D402" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="E402" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F402" t="n">
+        <v>33781.5209</v>
+      </c>
+      <c r="G402" t="n">
+        <v>-32875450.61181229</v>
+      </c>
+      <c r="H402" t="n">
+        <v>0</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
+      <c r="L402" t="n">
+        <v>1</v>
+      </c>
+      <c r="M402" t="inlineStr"/>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="n">
+        <v>401</v>
+      </c>
+      <c r="B403" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="C403" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="D403" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="E403" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F403" t="n">
+        <v>31251.4106</v>
+      </c>
+      <c r="G403" t="n">
+        <v>-32875450.61181229</v>
+      </c>
+      <c r="H403" t="n">
+        <v>0</v>
+      </c>
+      <c r="I403" t="inlineStr"/>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
+      <c r="L403" t="n">
+        <v>1</v>
+      </c>
+      <c r="M403" t="inlineStr"/>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="B404" t="n">
         <v>1.745</v>
       </c>
-      <c r="K397" t="inlineStr">
+      <c r="C404" t="n">
+        <v>1.745</v>
+      </c>
+      <c r="D404" t="n">
+        <v>1.745</v>
+      </c>
+      <c r="E404" t="n">
+        <v>1.745</v>
+      </c>
+      <c r="F404" t="n">
+        <v>9459.766</v>
+      </c>
+      <c r="G404" t="n">
+        <v>-32884910.37781228</v>
+      </c>
+      <c r="H404" t="n">
+        <v>0</v>
+      </c>
+      <c r="I404" t="inlineStr"/>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
+      <c r="L404" t="n">
+        <v>1</v>
+      </c>
+      <c r="M404" t="inlineStr"/>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="n">
+        <v>403</v>
+      </c>
+      <c r="B405" t="n">
+        <v>1.745</v>
+      </c>
+      <c r="C405" t="n">
+        <v>1.745</v>
+      </c>
+      <c r="D405" t="n">
+        <v>1.745</v>
+      </c>
+      <c r="E405" t="n">
+        <v>1.745</v>
+      </c>
+      <c r="F405" t="n">
+        <v>55485.327</v>
+      </c>
+      <c r="G405" t="n">
+        <v>-32884910.37781228</v>
+      </c>
+      <c r="H405" t="n">
+        <v>0</v>
+      </c>
+      <c r="I405" t="inlineStr"/>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
+      <c r="L405" t="n">
+        <v>1</v>
+      </c>
+      <c r="M405" t="inlineStr"/>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="n">
+        <v>404</v>
+      </c>
+      <c r="B406" t="n">
+        <v>1.745</v>
+      </c>
+      <c r="C406" t="n">
+        <v>1.745</v>
+      </c>
+      <c r="D406" t="n">
+        <v>1.745</v>
+      </c>
+      <c r="E406" t="n">
+        <v>1.745</v>
+      </c>
+      <c r="F406" t="n">
+        <v>1358021.3671</v>
+      </c>
+      <c r="G406" t="n">
+        <v>-32884910.37781228</v>
+      </c>
+      <c r="H406" t="n">
+        <v>0</v>
+      </c>
+      <c r="I406" t="inlineStr"/>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
+      <c r="L406" t="n">
+        <v>1</v>
+      </c>
+      <c r="M406" t="inlineStr"/>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="n">
+        <v>405</v>
+      </c>
+      <c r="B407" t="n">
+        <v>1.749</v>
+      </c>
+      <c r="C407" t="n">
+        <v>1.745</v>
+      </c>
+      <c r="D407" t="n">
+        <v>1.749</v>
+      </c>
+      <c r="E407" t="n">
+        <v>1.745</v>
+      </c>
+      <c r="F407" t="n">
+        <v>38779.2405</v>
+      </c>
+      <c r="G407" t="n">
+        <v>-32884910.37781228</v>
+      </c>
+      <c r="H407" t="n">
+        <v>1</v>
+      </c>
+      <c r="I407" t="n">
+        <v>1.745</v>
+      </c>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L397" t="n">
-        <v>1</v>
-      </c>
-      <c r="M397" t="inlineStr"/>
-    </row>
-    <row r="398">
-      <c r="A398" s="1" t="n">
-        <v>396</v>
-      </c>
-      <c r="B398" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="C398" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="D398" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="E398" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="F398" t="n">
-        <v>4293.142857142857</v>
-      </c>
-      <c r="G398" t="n">
-        <v>-32875450.61181229</v>
-      </c>
-      <c r="H398" t="n">
-        <v>1</v>
-      </c>
-      <c r="I398" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="J398" t="n">
-        <v>1.745</v>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L398" t="n">
-        <v>1</v>
-      </c>
-      <c r="M398" t="inlineStr"/>
-    </row>
-    <row r="399">
-      <c r="A399" s="1" t="n">
-        <v>397</v>
-      </c>
-      <c r="B399" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="C399" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="D399" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="E399" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="F399" t="n">
-        <v>5968.835</v>
-      </c>
-      <c r="G399" t="n">
-        <v>-32875450.61181229</v>
-      </c>
-      <c r="H399" t="n">
-        <v>1</v>
-      </c>
-      <c r="I399" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="J399" t="n">
-        <v>1.745</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L399" t="n">
-        <v>1</v>
-      </c>
-      <c r="M399" t="inlineStr"/>
-    </row>
-    <row r="400">
-      <c r="A400" s="1" t="n">
-        <v>398</v>
-      </c>
-      <c r="B400" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="C400" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="D400" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="E400" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="F400" t="n">
-        <v>5969.4079</v>
-      </c>
-      <c r="G400" t="n">
-        <v>-32875450.61181229</v>
-      </c>
-      <c r="H400" t="n">
-        <v>1</v>
-      </c>
-      <c r="I400" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="J400" t="n">
-        <v>1.745</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L400" t="n">
-        <v>1</v>
-      </c>
-      <c r="M400" t="inlineStr"/>
-    </row>
-    <row r="401">
-      <c r="A401" s="1" t="n">
-        <v>399</v>
-      </c>
-      <c r="B401" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="C401" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="D401" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="E401" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="F401" t="n">
-        <v>13850.5627</v>
-      </c>
-      <c r="G401" t="n">
-        <v>-32875450.61181229</v>
-      </c>
-      <c r="H401" t="n">
-        <v>1</v>
-      </c>
-      <c r="I401" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="J401" t="n">
-        <v>1.745</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L401" t="n">
-        <v>1</v>
-      </c>
-      <c r="M401" t="inlineStr"/>
-    </row>
-    <row r="402">
-      <c r="A402" s="1" t="n">
-        <v>400</v>
-      </c>
-      <c r="B402" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="C402" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="D402" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="E402" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="F402" t="n">
-        <v>33781.5209</v>
-      </c>
-      <c r="G402" t="n">
-        <v>-32875450.61181229</v>
-      </c>
-      <c r="H402" t="n">
-        <v>1</v>
-      </c>
-      <c r="I402" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="J402" t="n">
-        <v>1.745</v>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L402" t="n">
-        <v>1</v>
-      </c>
-      <c r="M402" t="inlineStr"/>
-    </row>
-    <row r="403">
-      <c r="A403" s="1" t="n">
-        <v>401</v>
-      </c>
-      <c r="B403" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="C403" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="D403" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="E403" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="F403" t="n">
-        <v>31251.4106</v>
-      </c>
-      <c r="G403" t="n">
-        <v>-32875450.61181229</v>
-      </c>
-      <c r="H403" t="n">
-        <v>1</v>
-      </c>
-      <c r="I403" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="J403" t="n">
-        <v>1.745</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L403" t="n">
-        <v>1</v>
-      </c>
-      <c r="M403" t="inlineStr"/>
-    </row>
-    <row r="404">
-      <c r="A404" s="1" t="n">
-        <v>402</v>
-      </c>
-      <c r="B404" t="n">
-        <v>1.745</v>
-      </c>
-      <c r="C404" t="n">
-        <v>1.745</v>
-      </c>
-      <c r="D404" t="n">
-        <v>1.745</v>
-      </c>
-      <c r="E404" t="n">
-        <v>1.745</v>
-      </c>
-      <c r="F404" t="n">
-        <v>9459.766</v>
-      </c>
-      <c r="G404" t="n">
-        <v>-32884910.37781228</v>
-      </c>
-      <c r="H404" t="n">
-        <v>1</v>
-      </c>
-      <c r="I404" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="J404" t="n">
-        <v>1.745</v>
-      </c>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L404" t="n">
-        <v>1</v>
-      </c>
-      <c r="M404" t="inlineStr"/>
-    </row>
-    <row r="405">
-      <c r="A405" s="1" t="n">
-        <v>403</v>
-      </c>
-      <c r="B405" t="n">
-        <v>1.745</v>
-      </c>
-      <c r="C405" t="n">
-        <v>1.745</v>
-      </c>
-      <c r="D405" t="n">
-        <v>1.745</v>
-      </c>
-      <c r="E405" t="n">
-        <v>1.745</v>
-      </c>
-      <c r="F405" t="n">
-        <v>55485.327</v>
-      </c>
-      <c r="G405" t="n">
-        <v>-32884910.37781228</v>
-      </c>
-      <c r="H405" t="n">
-        <v>1</v>
-      </c>
-      <c r="I405" t="n">
-        <v>1.745</v>
-      </c>
-      <c r="J405" t="n">
-        <v>1.745</v>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L405" t="n">
-        <v>1</v>
-      </c>
-      <c r="M405" t="inlineStr"/>
-    </row>
-    <row r="406">
-      <c r="A406" s="1" t="n">
-        <v>404</v>
-      </c>
-      <c r="B406" t="n">
-        <v>1.745</v>
-      </c>
-      <c r="C406" t="n">
-        <v>1.745</v>
-      </c>
-      <c r="D406" t="n">
-        <v>1.745</v>
-      </c>
-      <c r="E406" t="n">
-        <v>1.745</v>
-      </c>
-      <c r="F406" t="n">
-        <v>1358021.3671</v>
-      </c>
-      <c r="G406" t="n">
-        <v>-32884910.37781228</v>
-      </c>
-      <c r="H406" t="n">
-        <v>1</v>
-      </c>
-      <c r="I406" t="n">
-        <v>1.745</v>
-      </c>
-      <c r="J406" t="n">
-        <v>1.745</v>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L406" t="n">
-        <v>1</v>
-      </c>
-      <c r="M406" t="inlineStr"/>
-    </row>
-    <row r="407">
-      <c r="A407" s="1" t="n">
-        <v>405</v>
-      </c>
-      <c r="B407" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="C407" t="n">
-        <v>1.745</v>
-      </c>
-      <c r="D407" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="E407" t="n">
-        <v>1.745</v>
-      </c>
-      <c r="F407" t="n">
-        <v>38779.2405</v>
-      </c>
-      <c r="G407" t="n">
-        <v>-32884910.37781228</v>
-      </c>
-      <c r="H407" t="n">
-        <v>1</v>
-      </c>
-      <c r="I407" t="n">
-        <v>1.745</v>
-      </c>
-      <c r="J407" t="n">
-        <v>1.745</v>
-      </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -13941,14 +13855,10 @@
         <v>-32884624.37781228</v>
       </c>
       <c r="H408" t="n">
-        <v>1</v>
-      </c>
-      <c r="I408" t="n">
-        <v>1.745</v>
-      </c>
-      <c r="J408" t="n">
-        <v>1.745</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I408" t="inlineStr"/>
+      <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13987,9 +13897,7 @@
       <c r="I409" t="n">
         <v>1.749</v>
       </c>
-      <c r="J409" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14028,9 +13936,7 @@
       <c r="I410" t="n">
         <v>1.749</v>
       </c>
-      <c r="J410" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14069,9 +13975,7 @@
       <c r="I411" t="n">
         <v>1.745</v>
       </c>
-      <c r="J411" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14110,9 +14014,7 @@
       <c r="I412" t="n">
         <v>1.77</v>
       </c>
-      <c r="J412" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14146,14 +14048,10 @@
         <v>-32764902.28611229</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
-      </c>
-      <c r="I413" t="n">
-        <v>1.751</v>
-      </c>
-      <c r="J413" t="n">
-        <v>1.745</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I413" t="inlineStr"/>
+      <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14190,9 +14088,7 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14226,14 +14122,10 @@
         <v>-33434640.71941229</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
-      </c>
-      <c r="I415" t="n">
-        <v>1.751</v>
-      </c>
-      <c r="J415" t="n">
-        <v>1.745</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I415" t="inlineStr"/>
+      <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14267,14 +14159,10 @@
         <v>-34024640.71941228</v>
       </c>
       <c r="H416" t="n">
-        <v>1</v>
-      </c>
-      <c r="I416" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="J416" t="n">
-        <v>1.745</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I416" t="inlineStr"/>
+      <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14308,14 +14196,10 @@
         <v>-34456291.11791229</v>
       </c>
       <c r="H417" t="n">
-        <v>1</v>
-      </c>
-      <c r="I417" t="n">
-        <v>1.746</v>
-      </c>
-      <c r="J417" t="n">
-        <v>1.745</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I417" t="inlineStr"/>
+      <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14354,9 +14238,7 @@
       <c r="I418" t="n">
         <v>1.737</v>
       </c>
-      <c r="J418" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14395,9 +14277,7 @@
       <c r="I419" t="n">
         <v>1.766</v>
       </c>
-      <c r="J419" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14431,14 +14311,10 @@
         <v>-32459963.57691229</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
-      </c>
-      <c r="I420" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="J420" t="n">
-        <v>1.745</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I420" t="inlineStr"/>
+      <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14472,14 +14348,10 @@
         <v>-35802790.57691228</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
-      </c>
-      <c r="I421" t="n">
-        <v>1.759</v>
-      </c>
-      <c r="J421" t="n">
-        <v>1.745</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I421" t="inlineStr"/>
+      <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14516,9 +14388,7 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14557,9 +14427,7 @@
       <c r="I423" t="n">
         <v>1.738</v>
       </c>
-      <c r="J423" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14596,9 +14464,7 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14632,12 +14498,12 @@
         <v>-34339968.83891228</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
-      </c>
-      <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>1.745</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I425" t="n">
+        <v>1.738</v>
+      </c>
+      <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14674,9 +14540,7 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14713,9 +14577,7 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14752,9 +14614,7 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14791,9 +14651,7 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14830,9 +14688,7 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14869,9 +14725,7 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14908,9 +14762,7 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14947,9 +14799,7 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14986,9 +14836,7 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15025,9 +14873,7 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15064,9 +14910,7 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15103,9 +14947,7 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15142,9 +14984,7 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15181,9 +15021,7 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15220,9 +15058,7 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15259,9 +15095,7 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15298,9 +15132,7 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15337,9 +15169,7 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15376,9 +15206,7 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15415,9 +15243,7 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15454,9 +15280,7 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15493,9 +15317,7 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15532,9 +15354,7 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15571,9 +15391,7 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15610,9 +15428,7 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15649,9 +15465,7 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15688,9 +15502,7 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15727,9 +15539,7 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15766,9 +15576,7 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15805,9 +15613,7 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15844,9 +15650,7 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15883,9 +15687,7 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15922,9 +15724,7 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15961,9 +15761,7 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16000,9 +15798,7 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16039,9 +15835,7 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16078,9 +15872,7 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16117,9 +15909,7 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16156,9 +15946,7 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16195,9 +15983,7 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16234,9 +16020,7 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16273,9 +16057,7 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16312,9 +16094,7 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16351,9 +16131,7 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16390,9 +16168,7 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16429,9 +16205,7 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16468,9 +16242,7 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16507,9 +16279,7 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16546,9 +16316,7 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16585,9 +16353,7 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16624,9 +16390,7 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16663,9 +16427,7 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16702,9 +16464,7 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16741,9 +16501,7 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16780,9 +16538,7 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16819,9 +16575,7 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16858,9 +16612,7 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16897,9 +16649,7 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16936,9 +16686,7 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16975,9 +16723,7 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17014,9 +16760,7 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17053,9 +16797,7 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17092,9 +16834,7 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17131,9 +16871,7 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17170,9 +16908,7 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17209,9 +16945,7 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17248,9 +16982,7 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17287,9 +17019,7 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17326,9 +17056,7 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17365,9 +17093,7 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17404,9 +17130,7 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17443,9 +17167,7 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17482,9 +17204,7 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17521,9 +17241,7 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17560,9 +17278,7 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17599,9 +17315,7 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17638,9 +17352,7 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17677,9 +17389,7 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17716,9 +17426,7 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17755,9 +17463,7 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17794,9 +17500,7 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17833,9 +17537,7 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17872,9 +17574,7 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17911,9 +17611,7 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17947,20 +17645,16 @@
         <v>-45765987.12204704</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="n">
-        <v>1.745</v>
-      </c>
+      <c r="J510" t="inlineStr"/>
       <c r="K510" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L510" t="n">
-        <v>1</v>
-      </c>
+      <c r="L510" t="inlineStr"/>
       <c r="M510" t="inlineStr"/>
     </row>
     <row r="511">
@@ -17989,14 +17683,8 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="n">
-        <v>1.745</v>
-      </c>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J511" t="inlineStr"/>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -18028,20 +17716,14 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="n">
-        <v>1.745</v>
-      </c>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J512" t="inlineStr"/>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
       <c r="M512" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest AOA.xlsx
+++ b/BackTest/2020-01-16 BackTest AOA.xlsx
@@ -451,7 +451,7 @@
         <v>1527385.197240562</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-2053560.682759438</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-2309489.122859438</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-2628105.318759438</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-2921824.040459438</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-2921824.040459438</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-2921824.040459438</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-7818.072959435754</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>4602856.920240565</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>5615234.797640565</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>3432499.917640565</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>7043819.447640566</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>7044834.892540566</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>9377285.272540566</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>6175477.392540566</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>5677510.861240566</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>5675654.861240566</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>4089772.691240566</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>6738689.571240566</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>4720567.691240566</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>4720107.744640565</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>6325475.744640565</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>5054441.721340565</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>6527687.281740565</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>5060074.281740565</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>5059091.380940565</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>5803364.380940565</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>6570817.260940565</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>5530202.045540565</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>5126396.754840565</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>1280152.299740565</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>1286716.984940565</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -13321,10 +13321,14 @@
         <v>-32673331.84106943</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
-      </c>
-      <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I392" t="n">
+        <v>1.759</v>
+      </c>
+      <c r="J392" t="n">
+        <v>1.759</v>
+      </c>
       <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
@@ -13354,11 +13358,19 @@
         <v>-32673331.84106943</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
-      </c>
-      <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I393" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="J393" t="n">
+        <v>1.759</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13387,11 +13399,19 @@
         <v>-32729893.29526943</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I394" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="J394" t="n">
+        <v>1.759</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13420,10 +13440,14 @@
         <v>-32767355.91006943</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
-      </c>
-      <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I395" t="n">
+        <v>1.747</v>
+      </c>
+      <c r="J395" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
@@ -13453,11 +13477,19 @@
         <v>-32687355.91006943</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I396" t="n">
+        <v>1.745</v>
+      </c>
+      <c r="J396" t="n">
+        <v>1.747</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13486,11 +13518,19 @@
         <v>-32879743.75466943</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
-      </c>
-      <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I397" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="J397" t="n">
+        <v>1.747</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13519,11 +13559,19 @@
         <v>-32875450.61181229</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I398" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="J398" t="n">
+        <v>1.747</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13552,11 +13600,19 @@
         <v>-32875450.61181229</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I399" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="J399" t="n">
+        <v>1.747</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13585,11 +13641,19 @@
         <v>-32875450.61181229</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I400" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="J400" t="n">
+        <v>1.747</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13618,11 +13682,19 @@
         <v>-32875450.61181229</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I401" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="J401" t="n">
+        <v>1.747</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13651,11 +13723,19 @@
         <v>-32875450.61181229</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I402" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="J402" t="n">
+        <v>1.747</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13684,11 +13764,19 @@
         <v>-32875450.61181229</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
-      </c>
-      <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I403" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="J403" t="n">
+        <v>1.747</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13717,11 +13805,19 @@
         <v>-32884910.37781228</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
-      </c>
-      <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I404" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="J404" t="n">
+        <v>1.747</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13750,11 +13846,19 @@
         <v>-32884910.37781228</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
-      </c>
-      <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I405" t="n">
+        <v>1.745</v>
+      </c>
+      <c r="J405" t="n">
+        <v>1.747</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13783,11 +13887,19 @@
         <v>-32884910.37781228</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
-      </c>
-      <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I406" t="n">
+        <v>1.745</v>
+      </c>
+      <c r="J406" t="n">
+        <v>1.747</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -13821,10 +13933,12 @@
       <c r="I407" t="n">
         <v>1.745</v>
       </c>
-      <c r="J407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K407" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L407" t="n">
@@ -13855,10 +13969,14 @@
         <v>-32884624.37781228</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
-      </c>
-      <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I408" t="n">
+        <v>1.745</v>
+      </c>
+      <c r="J408" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13897,7 +14015,9 @@
       <c r="I409" t="n">
         <v>1.749</v>
       </c>
-      <c r="J409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13936,7 +14056,9 @@
       <c r="I410" t="n">
         <v>1.749</v>
       </c>
-      <c r="J410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13975,7 +14097,9 @@
       <c r="I411" t="n">
         <v>1.745</v>
       </c>
-      <c r="J411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14014,7 +14138,9 @@
       <c r="I412" t="n">
         <v>1.77</v>
       </c>
-      <c r="J412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14048,10 +14174,14 @@
         <v>-32764902.28611229</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
-      </c>
-      <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I413" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="J413" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14085,10 +14215,14 @@
         <v>-33434990.28611229</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
-      </c>
-      <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I414" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="J414" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14122,10 +14256,14 @@
         <v>-33434640.71941229</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
-      </c>
-      <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I415" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="J415" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14159,10 +14297,14 @@
         <v>-34024640.71941228</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
-      </c>
-      <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I416" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="J416" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14196,10 +14338,14 @@
         <v>-34456291.11791229</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
-      </c>
-      <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I417" t="n">
+        <v>1.746</v>
+      </c>
+      <c r="J417" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14238,7 +14384,9 @@
       <c r="I418" t="n">
         <v>1.737</v>
       </c>
-      <c r="J418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14277,7 +14425,9 @@
       <c r="I419" t="n">
         <v>1.766</v>
       </c>
-      <c r="J419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14311,10 +14461,14 @@
         <v>-32459963.57691229</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
-      </c>
-      <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I420" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="J420" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14348,10 +14502,14 @@
         <v>-35802790.57691228</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
-      </c>
-      <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I421" t="n">
+        <v>1.759</v>
+      </c>
+      <c r="J421" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14385,10 +14543,14 @@
         <v>-35802790.57691228</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I422" t="n">
+        <v>1.738</v>
+      </c>
+      <c r="J422" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14427,7 +14589,9 @@
       <c r="I423" t="n">
         <v>1.738</v>
       </c>
-      <c r="J423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14461,10 +14625,14 @@
         <v>-35835390.71891228</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
-      </c>
-      <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I424" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="J424" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14503,7 +14671,9 @@
       <c r="I425" t="n">
         <v>1.738</v>
       </c>
-      <c r="J425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14537,10 +14707,14 @@
         <v>-34339968.83891228</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
-      </c>
-      <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I426" t="n">
+        <v>1.759</v>
+      </c>
+      <c r="J426" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14577,7 +14751,9 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14611,10 +14787,14 @@
         <v>-35129243.83891228</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
-      </c>
-      <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I428" t="n">
+        <v>1.759</v>
+      </c>
+      <c r="J428" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14648,10 +14828,14 @@
         <v>-35128958.83891228</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
-      </c>
-      <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I429" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="J429" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14685,10 +14869,14 @@
         <v>-35075996.90691228</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
-      </c>
-      <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I430" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="J430" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14725,7 +14913,9 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14759,10 +14949,14 @@
         <v>-35075996.90691228</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I432" t="n">
+        <v>1.766</v>
+      </c>
+      <c r="J432" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14799,7 +14993,9 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14833,10 +15029,14 @@
         <v>-35075996.90691228</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I434" t="n">
+        <v>1.766</v>
+      </c>
+      <c r="J434" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14870,10 +15070,14 @@
         <v>-31876931.02691228</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I435" t="n">
+        <v>1.766</v>
+      </c>
+      <c r="J435" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14910,7 +15114,9 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14947,7 +15153,9 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14984,7 +15192,9 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15021,7 +15231,9 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15058,7 +15270,9 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15095,7 +15309,9 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15132,7 +15348,9 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15169,7 +15387,9 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15206,7 +15426,9 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15243,7 +15465,9 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15280,7 +15504,9 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15317,7 +15543,9 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15354,7 +15582,9 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15391,7 +15621,9 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15428,7 +15660,9 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15465,7 +15699,9 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15502,7 +15738,9 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15539,7 +15777,9 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15576,7 +15816,9 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15613,7 +15855,9 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15650,7 +15894,9 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15687,7 +15933,9 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15724,7 +15972,9 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15761,7 +16011,9 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15798,7 +16050,9 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15835,7 +16089,9 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15872,7 +16128,9 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15909,7 +16167,9 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15946,7 +16206,9 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15983,7 +16245,9 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16020,7 +16284,9 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16057,7 +16323,9 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16094,7 +16362,9 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16131,7 +16401,9 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16168,7 +16440,9 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16205,7 +16479,9 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16242,7 +16518,9 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16279,7 +16557,9 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16316,7 +16596,9 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16353,7 +16635,9 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16390,7 +16674,9 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16427,7 +16713,9 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16464,7 +16752,9 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16501,7 +16791,9 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16538,7 +16830,9 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16575,7 +16869,9 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16612,7 +16908,9 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16649,7 +16947,9 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16686,7 +16986,9 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16723,7 +17025,9 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16760,7 +17064,9 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16797,7 +17103,9 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16834,7 +17142,9 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16871,7 +17181,9 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16908,7 +17220,9 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16945,7 +17259,9 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16982,7 +17298,9 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17019,7 +17337,9 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17056,7 +17376,9 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17093,7 +17415,9 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17130,7 +17454,9 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17167,7 +17493,9 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17204,7 +17532,9 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17241,7 +17571,9 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17278,7 +17610,9 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17315,7 +17649,9 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17352,7 +17688,9 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17389,7 +17727,9 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17426,7 +17766,9 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17460,10 +17802,14 @@
         <v>-45710996.13034704</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
-      </c>
-      <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I505" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="J505" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17497,10 +17843,14 @@
         <v>-45926277.53274704</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
-      </c>
-      <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I506" t="n">
+        <v>1.776</v>
+      </c>
+      <c r="J506" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17534,10 +17884,14 @@
         <v>-45770604.56994703</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
-      </c>
-      <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I507" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="J507" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17571,10 +17925,14 @@
         <v>-45770604.56994703</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
-      </c>
-      <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I508" t="n">
+        <v>1.776</v>
+      </c>
+      <c r="J508" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17608,10 +17966,14 @@
         <v>-45765987.12204704</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
-      </c>
-      <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I509" t="n">
+        <v>1.776</v>
+      </c>
+      <c r="J509" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17645,16 +18007,22 @@
         <v>-45765987.12204704</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
-      </c>
-      <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I510" t="n">
+        <v>1.778</v>
+      </c>
+      <c r="J510" t="n">
+        <v>1.747</v>
+      </c>
       <c r="K510" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L510" t="inlineStr"/>
+      <c r="L510" t="n">
+        <v>1</v>
+      </c>
       <c r="M510" t="inlineStr"/>
     </row>
     <row r="511">
@@ -17680,11 +18048,19 @@
         <v>-45745663.30134704</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
-      </c>
-      <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I511" t="n">
+        <v>1.778</v>
+      </c>
+      <c r="J511" t="n">
+        <v>1.747</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17713,11 +18089,19 @@
         <v>-45745663.30134704</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
-      </c>
-      <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I512" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="J512" t="n">
+        <v>1.747</v>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
